--- a/biology/Zoologie/Dominicaine_(race_de_poule)/Dominicaine_(race_de_poule).xlsx
+++ b/biology/Zoologie/Dominicaine_(race_de_poule)/Dominicaine_(race_de_poule).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La « dominicaine » est une race de poules domestiques.
 </t>
@@ -511,13 +523,85 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>C'est une volaille au tempérament vif, de grandeur moyenne, robuste et rustique, au port de hauteur moyenne et au plumage bien collé au corps. Elle supporte bien les hivers rigoureux. La dominicaine est une poule d'une grande valeur commerciale : on l'élève pour ses œufs et sa chair. Elle a été introduite en Europe à la fin du XIXe siècle. Elle est reconnue parmi les 108 races de poule du British Poultry Standard. 
-Origine
-Originaire des États-Unis dans la région de la Nouvelle-Angleterre, elle fut introduite en Europe vers 1890.
-Standard officiel
-Crête : frisée
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une volaille au tempérament vif, de grandeur moyenne, robuste et rustique, au port de hauteur moyenne et au plumage bien collé au corps. Elle supporte bien les hivers rigoureux. La dominicaine est une poule d'une grande valeur commerciale : on l'élève pour ses œufs et sa chair. Elle a été introduite en Europe à la fin du XIXe siècle. Elle est reconnue parmi les 108 races de poule du British Poultry Standard. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dominicaine_(race_de_poule)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominicaine_(race_de_poule)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Originaire des États-Unis dans la région de la Nouvelle-Angleterre, elle fut introduite en Europe vers 1890.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dominicaine_(race_de_poule)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominicaine_(race_de_poule)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Standard officiel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Crête : frisée
 Oreillons : rouges
 Couleur des yeux : rouge orangé
 Couleur de la peau : jaune
